--- a/biology/Zoologie/Archaeoprepona/Archaeoprepona.xlsx
+++ b/biology/Zoologie/Archaeoprepona/Archaeoprepona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoprepona est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Charaxinae qui résident en Amérique.
 </t>
@@ -511,43 +523,114 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Archaeoprepona a été décrit par Hans Fruhstorfer en 1915[1].
-L'espèce type est : Papilio demophon (Linnaeus, 1758)
-Synonymes
-Pseudoprepona (Le Moult, 1932-33)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Archaeoprepona a été décrit par Hans Fruhstorfer en 1915.
+L'espèce type est : Papilio demophon (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Archaeoprepona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudoprepona (Le Moult, 1932-33)
 La plupart des espèces ont été un temps été classées dans le genre Prepona.
-Taxinomie
-Liste des espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archaeoprepona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Archaeoprepona amphimachus (Fabricius, 1775) présent au Mexique, en Colombie, au Brésil au Pérou.
 Archaeoprepona amphimachus amphimachus
 Archaeoprepona amphimachus amphiktion Fruhstorfer, 1924
 Archaeoprepona amphimachus baroni Maza, 1982
 Archaeoprepona amphimachus pseudmeander (Fruhstorfer, 1906)
 Archaeoprepona amphimachus symaithus (Fruhstorfer, 1916)
-Archaeoprepona camilla (Godman &amp; Salvin, [1884])
+Archaeoprepona camilla (Godman &amp; Salvin, )
 Archaeoprepona camilla camilla
 Archaeoprepona camilla metabus (Fruhstorfer, 1916)
-Archaeoprepona chalciope (Hübner, [1823])
+Archaeoprepona chalciope (Hübner, )
 Archaeoprepona demophon (Linnaeus, 1758)
 Il existe 6 sous-espèces
-Archaeoprepona demophoon (Hübner, [1814])
+Archaeoprepona demophoon (Hübner, )
 Archaeoprepona demophoon demophoon
 Archaeoprepona demophoon andicola (Fruhstorfer, 1904)
-Archaeoprepona demophoon antimache (Hübner, [1819])
+Archaeoprepona demophoon antimache (Hübner, )
 Archaeoprepona demophoon crassina (Fruhstorfer, 1904)
 Archaeoprepona demophoon gulina (Fruhstorfer, 1904)
 Archaeoprepona demophoon insulicola (Fruhstorfer, 1897)
 Archaeoprepona demophoon mexicana Llorente, Descimon &amp; Johnson, 1993
-Archaeoprepona licomedes (Cramer, [1777])
+Archaeoprepona licomedes (Cramer, )
 Il existe 2 sous-espèces
-Archaeoprepona meander (Cramer, [1775])
+Archaeoprepona meander (Cramer, )
 Archaeoprepona meander meander
 Archaeoprepona meander castorina (May, 1932)
 Archaeoprepona meander megabates (Fruhstorfer, 1916)
 Archaeoprepona meander phoebus (Boisduval, 1870)
-Archaeoprepona phaedra (Godman et Salvin, [1884]) présent au Mexique et à Panama.
+Archaeoprepona phaedra (Godman et Salvin, ) présent au Mexique et à Panama.
 Archaeoprepona phaedra phaedra
 Archaeoprepona phaedra aelia Godman et Salvin, 1889
 			Archaeoprepona amphimachus  - Les deux faces
